--- a/biology/Botanique/Beurré_gris/Beurré_gris.xlsx
+++ b/biology/Botanique/Beurré_gris/Beurré_gris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_gris</t>
+          <t>Beurré_gris</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La beurré gris est une variété de poire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_gris</t>
+          <t>Beurré_gris</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,20 +523,22 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'Ambleteuse.
 Beurrée d'Ambleuse.
 Beurré d'Amboise.
 Beurré doré.
-Beurré roux[1], voir ce nom.
-Beurré Aurore[1].
+Beurré roux, voir ce nom.
+Beurré Aurore.
 Beurré d'Isambart.
 Beurré gris d'automne.
 Beurré d'Anjou.
-Beurré Capiaumont[1].
+Beurré Capiaumont.
 Beurré Rouge.
-Beurré Rousse[2],[3].
+Beurré Rousse,.
 Eisenbart (en Allemagne),
 Isambart.
 En Allemagne : Gute Graue, ‘Beurre gris’, ‘Graue Sommerbutterbirne’, ‘Graubirne’, ‘Grisbirne’, ‘Schöne Gabriele’, ‘Sommer-Ambrette’.</t>
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_gris</t>
+          <t>Beurré_gris</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,7 +569,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est d'origine inconnue mais très ancienne, déjà mentionnée par Olivier de Serres en 1651. En Allemagne, de nombreuses appellations conduisent à des confusions...
 </t>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_gris</t>
+          <t>Beurré_gris</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,14 +602,16 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Rameaux : moyens, assez forts, arqués, flexueux, rouge brun clair.
 Yeux : gros, coniques, obtus, peu écartés du rameau.
 Culture : ce poirier peut être greffé sur franc ou sur cognassier ; on recommande de le greffer sur franc et de le planter en espalier. Il se plaît aux expositions chaudes, dans les sols argilo-siliceux, substantiels, frais et non humides.
 On taille court et on pince les bourgeons qui se développent sur trois ou quatre feuilles. Cette variété, délicate, très sujette à la tavelure, doit être soumise aux traitements cupriques en été et les fruits à l'ensachage.
-Fruit d'amateur[4].
-C'est une variété triploïde qui sera pollenisée par ‘Clapp's Favorite’, ‘Gellerts Butterbirne’, ‘Gräfin von Paris’, ‘Louise Bonne’, ‘Madame Verté’, ‘Bergamotte Esperen’, ‘Boscs Flaschenbirne’[5].
+Fruit d'amateur.
+C'est une variété triploïde qui sera pollenisée par ‘Clapp's Favorite’, ‘Gellerts Butterbirne’, ‘Gräfin von Paris’, ‘Louise Bonne’, ‘Madame Verté’, ‘Bergamotte Esperen’, ‘Boscs Flaschenbirne’.
 </t>
         </is>
       </c>
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_gris</t>
+          <t>Beurré_gris</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,15 +640,17 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fruit : moyen ou assez gros, turbiné[6] ventru, presque aussi large que haut.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fruit : moyen ou assez gros, turbiné ventru, presque aussi large que haut.
 Épiderme : fin, jaune pâle, verdâtre, presque entièrement lavé de fauve, pointillé de gris foncé, rarement teinté de rose.
 Pédicelle : moyen, assez fort, parfois charnu à la base, il est renflé au point d'attache.
 Œil : moyen, ouvert. Inséré dans une dépression peu profonde, il est assez large, parfois à fleur du fruit.
 Chair : blanche, assez fine, fondante, beurrée, très juteuse, sucrée, un peu vineuse, agréablement acidulée et parfumée.
 Qualité : très bonne.
-Maturité : octobre[4].
+Maturité : octobre.
 </t>
         </is>
       </c>
